--- a/medicine/Mort/Filicide/Filicide.xlsx
+++ b/medicine/Mort/Filicide/Filicide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le filicide est l'acte délibéré du parent qui tue son propre enfant. Le mot filicide est dérivé des mots latins filius et filia (fils et fille), et du suffixe -cide, qui signifie tuer, assassiner ou causer la mort. Le mot peut désigner à la fois le crime et l'auteur du crime.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Droit canadien
-En droit pénal canadien, il existe trois types d'homicide coupable :  le meurtre (art. 229 C.cr.[1]), l'infanticide (art. 233 C.cr.) et l'homicide involontaire coupable (art. 234 C.cr.[2],  222 (5) C.cr.[3]). Le filicide n'est pas une catégorie distincte d'homicide dans le Code criminel et il ne doit pas être confondu avec l'infanticide, car l'infraction d'infanticide ne vise que les homicides commis par la mère d'un nouveau-né sur un nouveau-né. Par conséquent, comme il ne s'agit généralement pas d'un infanticide, le filicide va en règle générale être poursuivi sous les infractions de meurtre ou d'homicide involontaire coupable. Lorsque les procureurs de la poursuite sont en mesure de prouver la préméditation et le propos délibéré, le chef d'accusation utilisé sera plus précisément l'infraction de meurtre au premier degré.
+          <t>Droit canadien</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En droit pénal canadien, il existe trois types d'homicide coupable :  le meurtre (art. 229 C.cr.), l'infanticide (art. 233 C.cr.) et l'homicide involontaire coupable (art. 234 C.cr.,  222 (5) C.cr.). Le filicide n'est pas une catégorie distincte d'homicide dans le Code criminel et il ne doit pas être confondu avec l'infanticide, car l'infraction d'infanticide ne vise que les homicides commis par la mère d'un nouveau-né sur un nouveau-né. Par conséquent, comme il ne s'agit généralement pas d'un infanticide, le filicide va en règle générale être poursuivi sous les infractions de meurtre ou d'homicide involontaire coupable. Lorsque les procureurs de la poursuite sont en mesure de prouver la préméditation et le propos délibéré, le chef d'accusation utilisé sera plus précisément l'infraction de meurtre au premier degré.
 </t>
         </is>
       </c>
